--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhufancheng/Library/Mobile Documents/com~apple~CloudDocs/研究/implementation/momentum ResNet/MRGraph/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C40A3F-E45C-2741-A089-2978075EA582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E274179F-4BE8-914E-9926-D3D4F20BFE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="1280" windowWidth="28220" windowHeight="15520" xr2:uid="{491ECB42-295E-F943-A076-8840D9F7AB7A}"/>
+    <workbookView xWindow="580" yWindow="1060" windowWidth="28220" windowHeight="15520" xr2:uid="{491ECB42-295E-F943-A076-8840D9F7AB7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>GCN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,13 +50,28 @@
   <si>
     <t>citeseer</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MomGCN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cora</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Citeseer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.779, 0.743, 0.748, 0.771, 0.753]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -84,6 +99,14 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -116,7 +139,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -127,6 +150,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -443,20 +469,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E6C376-4784-C84E-9422-AF9E4FC39B9F}">
-  <dimension ref="E5:K18"/>
+  <dimension ref="E5:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="5" spans="5:11">
+    <row r="5" spans="5:14">
       <c r="F5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="5:11">
+    <row r="7" spans="5:14">
       <c r="E7" t="s">
         <v>1</v>
       </c>
@@ -480,7 +506,7 @@
         <v>0.78660000000000008</v>
       </c>
     </row>
-    <row r="8" spans="5:11">
+    <row r="8" spans="5:14">
       <c r="E8" t="s">
         <v>3</v>
       </c>
@@ -504,20 +530,20 @@
         <v>0.6651999999999999</v>
       </c>
     </row>
-    <row r="9" spans="5:11">
+    <row r="9" spans="5:14">
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="5:11">
+    <row r="10" spans="5:14">
       <c r="F10" t="s">
         <v>2</v>
       </c>
       <c r="G10" s="1"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="5:11">
+    <row r="11" spans="5:14">
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="5:11">
+    <row r="12" spans="5:14">
       <c r="E12" t="s">
         <v>1</v>
       </c>
@@ -541,7 +567,7 @@
         <v>0.70660000000000001</v>
       </c>
     </row>
-    <row r="13" spans="5:11">
+    <row r="13" spans="5:14">
       <c r="E13" t="s">
         <v>3</v>
       </c>
@@ -565,19 +591,52 @@
         <v>0.59139999999999993</v>
       </c>
     </row>
-    <row r="14" spans="5:11">
+    <row r="14" spans="5:14">
       <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="5:11">
+      <c r="N14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="5:14">
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="5:11">
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="11:11">
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="11:11">
+    <row r="16" spans="5:14">
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="G16">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="H16">
+        <v>0.748</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="J16">
+        <v>0.753</v>
+      </c>
+      <c r="K16" s="3">
+        <f>AVERAGE(F16:J16)</f>
+        <v>0.75880000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11">
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="3" t="e">
+        <f>AVERAGE(F17:J17)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11">
       <c r="K18" s="2"/>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhufancheng/Library/Mobile Documents/com~apple~CloudDocs/研究/implementation/momentum ResNet/MRGraph/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E274179F-4BE8-914E-9926-D3D4F20BFE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0C14C8-5F51-E642-84AE-1996FFBB5FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="1060" windowWidth="28220" windowHeight="15520" xr2:uid="{491ECB42-295E-F943-A076-8840D9F7AB7A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>GCN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,7 +64,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[0.779, 0.743, 0.748, 0.771, 0.753]</t>
+    <t>2 blocks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.613, 0.62, 0.536, 0.685, 0.61]</t>
   </si>
 </sst>
 </file>
@@ -139,20 +143,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -469,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E6C376-4784-C84E-9422-AF9E4FC39B9F}">
-  <dimension ref="E5:N18"/>
+  <dimension ref="E5:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -486,158 +496,250 @@
       <c r="E7" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>0.79600000000000004</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>0.78800000000000003</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>0.76600000000000001</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>0.8</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>0.78300000000000003</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="4">
         <f>AVERAGE(F7:J7)</f>
         <v>0.78660000000000008</v>
       </c>
+      <c r="L7" s="3"/>
     </row>
     <row r="8" spans="5:14">
       <c r="E8" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>0.63</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>0.64</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>0.68799999999999994</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>0.69</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>0.67800000000000005</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="4">
         <f>AVERAGE(F8:J8)</f>
         <v>0.6651999999999999</v>
       </c>
+      <c r="L8" s="3"/>
     </row>
     <row r="9" spans="5:14">
-      <c r="K9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="3"/>
     </row>
     <row r="10" spans="5:14">
-      <c r="F10" t="s">
+      <c r="F10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="K10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="3"/>
     </row>
     <row r="11" spans="5:14">
-      <c r="K11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="3"/>
     </row>
     <row r="12" spans="5:14">
       <c r="E12" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>0.63800000000000001</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>0.77100000000000002</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="3">
         <v>0.72599999999999998</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="3">
         <v>0.68</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="3">
         <v>0.71799999999999997</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="4">
         <f>AVERAGE(F12:J12)</f>
         <v>0.70660000000000001</v>
       </c>
+      <c r="L12" s="3"/>
     </row>
     <row r="13" spans="5:14">
       <c r="E13" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>0.55700000000000005</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>0.57399999999999995</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="3">
         <v>0.60699999999999998</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="3">
         <v>0.625</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="5">
         <v>0.59399999999999997</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="4">
         <f>AVERAGE(F13:J13)</f>
         <v>0.59139999999999993</v>
       </c>
+      <c r="L13" s="3"/>
     </row>
     <row r="14" spans="5:14">
-      <c r="K14" s="2"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="3"/>
       <c r="N14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="5:14">
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="5:14">
-      <c r="F15" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="2"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="3"/>
     </row>
     <row r="16" spans="5:14">
       <c r="E16" t="s">
         <v>5</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>0.77900000000000003</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>0.74299999999999999</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="3">
         <v>0.748</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="6">
         <v>0.77100000000000002</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="3">
         <v>0.753</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="4">
         <f>AVERAGE(F16:J16)</f>
         <v>0.75880000000000003</v>
       </c>
-    </row>
-    <row r="17" spans="5:11">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="5:12">
       <c r="E17" t="s">
         <v>6</v>
       </c>
-      <c r="K17" s="3" t="e">
+      <c r="F17" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="K17" s="4">
         <f>AVERAGE(F17:J17)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="5:11">
-      <c r="K18" s="2"/>
+        <v>0.61280000000000001</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="5:12">
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="5:12">
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="5:12">
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="5:12">
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="5:12">
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
